--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1004.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1004.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.191241091597014</v>
+        <v>1.499087929725647</v>
       </c>
       <c r="B1">
-        <v>2.407611422085891</v>
+        <v>1.648744106292725</v>
       </c>
       <c r="C1">
-        <v>4.589273382854969</v>
+        <v>1.961511969566345</v>
       </c>
       <c r="D1">
-        <v>2.458090246958396</v>
+        <v>3.017608165740967</v>
       </c>
       <c r="E1">
-        <v>1.021486895248239</v>
+        <v>1.555091500282288</v>
       </c>
     </row>
   </sheetData>
